--- a/DMR Info.xlsx
+++ b/DMR Info.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/LDC-Surface/DMR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luc1/Documents/GitHub/DMR-Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CD6B7D-1D4B-FF47-8DB5-65461A61567E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2EC7472-28ED-BD45-8B8E-454C30DA070C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27500" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27500" windowHeight="16120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For Luc - Channels" sheetId="1" r:id="rId1"/>
     <sheet name="For Luc - TalkGroups" sheetId="2" r:id="rId2"/>
     <sheet name="For Luc - Zones" sheetId="3" r:id="rId3"/>
     <sheet name="Channels JSON" sheetId="4" r:id="rId4"/>
+    <sheet name="Contacts JSON" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17773" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18023" uniqueCount="493">
   <si>
     <t>No.</t>
   </si>
@@ -1495,13 +1496,31 @@
   <si>
     <t>ScanList1</t>
   </si>
+  <si>
+    <t>CallID</t>
+  </si>
+  <si>
+    <t>CallReceiveTone</t>
+  </si>
+  <si>
+    <t>CallType</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="\+0.00000;\-0.00000"/>
+    <numFmt numFmtId="164" formatCode="\+0.00000;\-0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1982,7 +2001,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -33984,8 +34003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35410,6 +35429,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -35418,7 +35438,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35426,8 +35446,8 @@
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -75815,4 +75835,1184 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19476194-5232-D44C-861E-16F6A7A827CB}">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5469</v>
+      </c>
+      <c r="B5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>491</v>
+      </c>
+      <c r="C10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" t="s">
+        <v>490</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>30239</v>
+      </c>
+      <c r="B12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C12" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>302999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>491</v>
+      </c>
+      <c r="C13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>310999</v>
+      </c>
+      <c r="B14" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14" t="s">
+        <v>492</v>
+      </c>
+      <c r="D14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>302</v>
+      </c>
+      <c r="B15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>302299</v>
+      </c>
+      <c r="B16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>30252</v>
+      </c>
+      <c r="B17" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" t="s">
+        <v>490</v>
+      </c>
+      <c r="D17" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>30255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>30265</v>
+      </c>
+      <c r="B19" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" t="s">
+        <v>490</v>
+      </c>
+      <c r="D19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C20" t="s">
+        <v>490</v>
+      </c>
+      <c r="D20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>30201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>491</v>
+      </c>
+      <c r="C21" t="s">
+        <v>490</v>
+      </c>
+      <c r="D21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" t="s">
+        <v>490</v>
+      </c>
+      <c r="D22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>30211</v>
+      </c>
+      <c r="B23" t="s">
+        <v>491</v>
+      </c>
+      <c r="C23" t="s">
+        <v>490</v>
+      </c>
+      <c r="D23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" t="s">
+        <v>490</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>30220</v>
+      </c>
+      <c r="B25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>30221</v>
+      </c>
+      <c r="B26" t="s">
+        <v>491</v>
+      </c>
+      <c r="C26" t="s">
+        <v>490</v>
+      </c>
+      <c r="D26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>30222</v>
+      </c>
+      <c r="B27" t="s">
+        <v>491</v>
+      </c>
+      <c r="C27" t="s">
+        <v>490</v>
+      </c>
+      <c r="D27" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>302205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>491</v>
+      </c>
+      <c r="C28" t="s">
+        <v>490</v>
+      </c>
+      <c r="D28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>302220</v>
+      </c>
+      <c r="B29" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29" t="s">
+        <v>490</v>
+      </c>
+      <c r="D29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3023</v>
+      </c>
+      <c r="B30" t="s">
+        <v>491</v>
+      </c>
+      <c r="C30" t="s">
+        <v>490</v>
+      </c>
+      <c r="D30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>491</v>
+      </c>
+      <c r="C31" t="s">
+        <v>490</v>
+      </c>
+      <c r="D31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30231</v>
+      </c>
+      <c r="B32" t="s">
+        <v>491</v>
+      </c>
+      <c r="C32" t="s">
+        <v>490</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>302310</v>
+      </c>
+      <c r="B33" t="s">
+        <v>491</v>
+      </c>
+      <c r="C33" t="s">
+        <v>490</v>
+      </c>
+      <c r="D33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30236</v>
+      </c>
+      <c r="B34" t="s">
+        <v>491</v>
+      </c>
+      <c r="C34" t="s">
+        <v>490</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>302377</v>
+      </c>
+      <c r="B35" t="s">
+        <v>491</v>
+      </c>
+      <c r="C35" t="s">
+        <v>490</v>
+      </c>
+      <c r="D35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3024</v>
+      </c>
+      <c r="B36" t="s">
+        <v>491</v>
+      </c>
+      <c r="C36" t="s">
+        <v>490</v>
+      </c>
+      <c r="D36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>30241</v>
+      </c>
+      <c r="B37" t="s">
+        <v>491</v>
+      </c>
+      <c r="C37" t="s">
+        <v>490</v>
+      </c>
+      <c r="D37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3025</v>
+      </c>
+      <c r="B38" t="s">
+        <v>491</v>
+      </c>
+      <c r="C38" t="s">
+        <v>490</v>
+      </c>
+      <c r="D38" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>30251</v>
+      </c>
+      <c r="B39" t="s">
+        <v>491</v>
+      </c>
+      <c r="C39" t="s">
+        <v>490</v>
+      </c>
+      <c r="D39" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3026</v>
+      </c>
+      <c r="B40" t="s">
+        <v>491</v>
+      </c>
+      <c r="C40" t="s">
+        <v>490</v>
+      </c>
+      <c r="D40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>30260</v>
+      </c>
+      <c r="B41" t="s">
+        <v>491</v>
+      </c>
+      <c r="C41" t="s">
+        <v>490</v>
+      </c>
+      <c r="D41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>30261</v>
+      </c>
+      <c r="B42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C42" t="s">
+        <v>490</v>
+      </c>
+      <c r="D42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3027</v>
+      </c>
+      <c r="B43" t="s">
+        <v>491</v>
+      </c>
+      <c r="C43" t="s">
+        <v>490</v>
+      </c>
+      <c r="D43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>30271</v>
+      </c>
+      <c r="B44" t="s">
+        <v>491</v>
+      </c>
+      <c r="C44" t="s">
+        <v>490</v>
+      </c>
+      <c r="D44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>30272</v>
+      </c>
+      <c r="B45" t="s">
+        <v>491</v>
+      </c>
+      <c r="C45" t="s">
+        <v>490</v>
+      </c>
+      <c r="D45" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3028</v>
+      </c>
+      <c r="B46" t="s">
+        <v>491</v>
+      </c>
+      <c r="C46" t="s">
+        <v>490</v>
+      </c>
+      <c r="D46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>30281</v>
+      </c>
+      <c r="B47" t="s">
+        <v>491</v>
+      </c>
+      <c r="C47" t="s">
+        <v>490</v>
+      </c>
+      <c r="D47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>30285</v>
+      </c>
+      <c r="B48" t="s">
+        <v>491</v>
+      </c>
+      <c r="C48" t="s">
+        <v>490</v>
+      </c>
+      <c r="D48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3029</v>
+      </c>
+      <c r="B49" t="s">
+        <v>491</v>
+      </c>
+      <c r="C49" t="s">
+        <v>490</v>
+      </c>
+      <c r="D49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>30291</v>
+      </c>
+      <c r="B50" t="s">
+        <v>491</v>
+      </c>
+      <c r="C50" t="s">
+        <v>490</v>
+      </c>
+      <c r="D50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>302911</v>
+      </c>
+      <c r="B51" t="s">
+        <v>491</v>
+      </c>
+      <c r="C51" t="s">
+        <v>490</v>
+      </c>
+      <c r="D51" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3020911</v>
+      </c>
+      <c r="B52" t="s">
+        <v>491</v>
+      </c>
+      <c r="C52" t="s">
+        <v>490</v>
+      </c>
+      <c r="D52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3021911</v>
+      </c>
+      <c r="B53" t="s">
+        <v>491</v>
+      </c>
+      <c r="C53" t="s">
+        <v>490</v>
+      </c>
+      <c r="D53" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3022911</v>
+      </c>
+      <c r="B54" t="s">
+        <v>491</v>
+      </c>
+      <c r="C54" t="s">
+        <v>490</v>
+      </c>
+      <c r="D54" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3023911</v>
+      </c>
+      <c r="B55" t="s">
+        <v>491</v>
+      </c>
+      <c r="C55" t="s">
+        <v>490</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3024911</v>
+      </c>
+      <c r="B56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C56" t="s">
+        <v>490</v>
+      </c>
+      <c r="D56" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3025911</v>
+      </c>
+      <c r="B57" t="s">
+        <v>491</v>
+      </c>
+      <c r="C57" t="s">
+        <v>490</v>
+      </c>
+      <c r="D57" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3026911</v>
+      </c>
+      <c r="B58" t="s">
+        <v>491</v>
+      </c>
+      <c r="C58" t="s">
+        <v>490</v>
+      </c>
+      <c r="D58" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3027911</v>
+      </c>
+      <c r="B59" t="s">
+        <v>491</v>
+      </c>
+      <c r="C59" t="s">
+        <v>490</v>
+      </c>
+      <c r="D59" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3028911</v>
+      </c>
+      <c r="B60" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60" t="s">
+        <v>490</v>
+      </c>
+      <c r="D60" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3029911</v>
+      </c>
+      <c r="B61" t="s">
+        <v>491</v>
+      </c>
+      <c r="C61" t="s">
+        <v>490</v>
+      </c>
+      <c r="D61" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3023065</v>
+      </c>
+      <c r="B62" t="s">
+        <v>353</v>
+      </c>
+      <c r="C62" t="s">
+        <v>492</v>
+      </c>
+      <c r="D62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3023212</v>
+      </c>
+      <c r="B63" t="s">
+        <v>353</v>
+      </c>
+      <c r="C63" t="s">
+        <v>492</v>
+      </c>
+      <c r="D63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3020342</v>
+      </c>
+      <c r="B64" t="s">
+        <v>491</v>
+      </c>
+      <c r="C64" t="s">
+        <v>492</v>
+      </c>
+      <c r="D64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>3020304</v>
+      </c>
+      <c r="B65" t="s">
+        <v>491</v>
+      </c>
+      <c r="C65" t="s">
+        <v>492</v>
+      </c>
+      <c r="D65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>3020238</v>
+      </c>
+      <c r="B66" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" t="s">
+        <v>492</v>
+      </c>
+      <c r="D66" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>3023466</v>
+      </c>
+      <c r="B67" t="s">
+        <v>491</v>
+      </c>
+      <c r="C67" t="s">
+        <v>492</v>
+      </c>
+      <c r="D67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>3020920</v>
+      </c>
+      <c r="B68" t="s">
+        <v>353</v>
+      </c>
+      <c r="C68" t="s">
+        <v>492</v>
+      </c>
+      <c r="D68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>3023078</v>
+      </c>
+      <c r="B69" t="s">
+        <v>353</v>
+      </c>
+      <c r="C69" t="s">
+        <v>492</v>
+      </c>
+      <c r="D69" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>3021639</v>
+      </c>
+      <c r="B70" t="s">
+        <v>353</v>
+      </c>
+      <c r="C70" t="s">
+        <v>492</v>
+      </c>
+      <c r="D70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>3021640</v>
+      </c>
+      <c r="B71" t="s">
+        <v>353</v>
+      </c>
+      <c r="C71" t="s">
+        <v>492</v>
+      </c>
+      <c r="D71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>4000</v>
+      </c>
+      <c r="B72" t="s">
+        <v>491</v>
+      </c>
+      <c r="C72" t="s">
+        <v>492</v>
+      </c>
+      <c r="D72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>5000</v>
+      </c>
+      <c r="B73" t="s">
+        <v>491</v>
+      </c>
+      <c r="C73" t="s">
+        <v>492</v>
+      </c>
+      <c r="D73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>9990</v>
+      </c>
+      <c r="B74" t="s">
+        <v>491</v>
+      </c>
+      <c r="C74" t="s">
+        <v>492</v>
+      </c>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>9999</v>
+      </c>
+      <c r="B75" t="s">
+        <v>491</v>
+      </c>
+      <c r="C75" t="s">
+        <v>492</v>
+      </c>
+      <c r="D75" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>3020356</v>
+      </c>
+      <c r="B76" t="s">
+        <v>353</v>
+      </c>
+      <c r="C76" t="s">
+        <v>492</v>
+      </c>
+      <c r="D76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>3020237</v>
+      </c>
+      <c r="B77" t="s">
+        <v>353</v>
+      </c>
+      <c r="C77" t="s">
+        <v>492</v>
+      </c>
+      <c r="D77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>302354</v>
+      </c>
+      <c r="B78" t="s">
+        <v>491</v>
+      </c>
+      <c r="C78" t="s">
+        <v>490</v>
+      </c>
+      <c r="D78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>302010</v>
+      </c>
+      <c r="B79" t="s">
+        <v>491</v>
+      </c>
+      <c r="C79" t="s">
+        <v>490</v>
+      </c>
+      <c r="D79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>31655</v>
+      </c>
+      <c r="B80" t="s">
+        <v>491</v>
+      </c>
+      <c r="C80" t="s">
+        <v>490</v>
+      </c>
+      <c r="D80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>1137550</v>
+      </c>
+      <c r="B81" t="s">
+        <v>491</v>
+      </c>
+      <c r="C81" t="s">
+        <v>490</v>
+      </c>
+      <c r="D81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>3021796</v>
+      </c>
+      <c r="B82" t="s">
+        <v>353</v>
+      </c>
+      <c r="C82" t="s">
+        <v>492</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>3021818</v>
+      </c>
+      <c r="B83" t="s">
+        <v>353</v>
+      </c>
+      <c r="C83" t="s">
+        <v>492</v>
+      </c>
+      <c r="D83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DMR Info.xlsx
+++ b/DMR Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luc1/Documents/GitHub/DMR-Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0964A4-8CEB-6D4D-89F8-BF3F1EEDD539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192F23E-14A4-364E-8257-D0DC68FD1F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27500" windowHeight="16120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18284" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18304" uniqueCount="507">
   <si>
     <t>No.</t>
   </si>
@@ -1550,6 +1550,12 @@
   <si>
     <t>+0.55000</t>
   </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
 </sst>
 </file>
 
@@ -35735,7 +35741,7 @@
   <dimension ref="A1:AX262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36870,10 +36876,10 @@
         <v>484</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>46</v>
@@ -37325,11 +37331,11 @@
       <c r="G11" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H11" s="2">
-        <v>100</v>
-      </c>
-      <c r="I11" s="2">
-        <v>100</v>
+      <c r="H11" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>46</v>
@@ -37477,11 +37483,11 @@
       <c r="G12" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H12" s="2">
-        <v>123</v>
-      </c>
-      <c r="I12" s="2">
-        <v>123</v>
+      <c r="H12" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>46</v>
@@ -38389,11 +38395,11 @@
       <c r="G18" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H18" s="2">
-        <v>123</v>
-      </c>
-      <c r="I18" s="2">
-        <v>123</v>
+      <c r="H18" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>46</v>
@@ -39605,11 +39611,11 @@
       <c r="G26" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H26" s="2">
-        <v>100</v>
-      </c>
-      <c r="I26" s="2">
-        <v>100</v>
+      <c r="H26" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>46</v>
@@ -40517,11 +40523,11 @@
       <c r="G32" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H32" s="2">
-        <v>123</v>
-      </c>
-      <c r="I32" s="2">
-        <v>123</v>
+      <c r="H32" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>46</v>
@@ -40669,11 +40675,11 @@
       <c r="G33" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H33" s="2">
-        <v>123</v>
-      </c>
-      <c r="I33" s="2">
-        <v>123</v>
+      <c r="H33" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>46</v>
@@ -42037,11 +42043,11 @@
       <c r="G42" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H42" s="2">
-        <v>100</v>
-      </c>
-      <c r="I42" s="2">
-        <v>100</v>
+      <c r="H42" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>46</v>
@@ -42189,11 +42195,11 @@
       <c r="G43" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H43" s="2">
-        <v>100</v>
-      </c>
-      <c r="I43" s="2">
-        <v>100</v>
+      <c r="H43" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>46</v>
@@ -42645,11 +42651,11 @@
       <c r="G46" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H46" s="2">
-        <v>100</v>
-      </c>
-      <c r="I46" s="2">
-        <v>100</v>
+      <c r="H46" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>46</v>
@@ -42797,11 +42803,11 @@
       <c r="G47" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="H47" s="2">
-        <v>100</v>
-      </c>
-      <c r="I47" s="2">
-        <v>100</v>
+      <c r="H47" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>46</v>
@@ -42950,10 +42956,10 @@
         <v>484</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>46</v>
@@ -43102,10 +43108,10 @@
         <v>484</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>46</v>
@@ -43254,10 +43260,10 @@
         <v>484</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>46</v>
@@ -43406,10 +43412,10 @@
         <v>484</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>46</v>
@@ -43558,10 +43564,10 @@
         <v>484</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>46</v>
@@ -43710,10 +43716,10 @@
         <v>484</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>46</v>
@@ -43862,10 +43868,10 @@
         <v>484</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>46</v>
@@ -44014,10 +44020,10 @@
         <v>484</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>46</v>
@@ -44166,10 +44172,10 @@
         <v>484</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>46</v>
@@ -44318,10 +44324,10 @@
         <v>484</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>46</v>
@@ -44470,10 +44476,10 @@
         <v>484</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>46</v>
@@ -44622,10 +44628,10 @@
         <v>484</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>46</v>
@@ -44774,10 +44780,10 @@
         <v>484</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>46</v>
@@ -44926,10 +44932,10 @@
         <v>484</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>46</v>
@@ -45078,10 +45084,10 @@
         <v>484</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>46</v>
@@ -45230,10 +45236,10 @@
         <v>484</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>46</v>
@@ -45382,10 +45388,10 @@
         <v>484</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>46</v>
@@ -45534,10 +45540,10 @@
         <v>484</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>46</v>
@@ -45686,10 +45692,10 @@
         <v>484</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>46</v>
@@ -45838,10 +45844,10 @@
         <v>484</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>46</v>
@@ -45990,10 +45996,10 @@
         <v>484</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>46</v>
@@ -46142,10 +46148,10 @@
         <v>484</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>46</v>
@@ -46294,10 +46300,10 @@
         <v>484</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>46</v>
@@ -46446,10 +46452,10 @@
         <v>484</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>46</v>
@@ -46598,10 +46604,10 @@
         <v>484</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>46</v>
@@ -46750,10 +46756,10 @@
         <v>484</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>46</v>
@@ -46902,10 +46908,10 @@
         <v>484</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>46</v>
@@ -47054,10 +47060,10 @@
         <v>484</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>46</v>
@@ -47206,10 +47212,10 @@
         <v>484</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>46</v>
@@ -47358,10 +47364,10 @@
         <v>484</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>46</v>
@@ -47510,10 +47516,10 @@
         <v>484</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>46</v>
@@ -47662,10 +47668,10 @@
         <v>484</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>46</v>
@@ -47814,10 +47820,10 @@
         <v>484</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>46</v>
@@ -47966,10 +47972,10 @@
         <v>484</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>46</v>
@@ -48118,10 +48124,10 @@
         <v>484</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>46</v>
@@ -48270,10 +48276,10 @@
         <v>484</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>46</v>
@@ -48422,10 +48428,10 @@
         <v>484</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>46</v>
@@ -48574,10 +48580,10 @@
         <v>484</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>46</v>
@@ -48726,10 +48732,10 @@
         <v>484</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>46</v>
@@ -48878,10 +48884,10 @@
         <v>484</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>46</v>
@@ -49030,10 +49036,10 @@
         <v>484</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>46</v>
@@ -49182,10 +49188,10 @@
         <v>484</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>46</v>
@@ -49334,10 +49340,10 @@
         <v>484</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>46</v>
@@ -49486,10 +49492,10 @@
         <v>484</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>46</v>
@@ -49638,10 +49644,10 @@
         <v>484</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>46</v>
@@ -49790,10 +49796,10 @@
         <v>484</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>46</v>
@@ -49942,10 +49948,10 @@
         <v>484</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>46</v>
@@ -50094,10 +50100,10 @@
         <v>484</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>46</v>
@@ -50246,10 +50252,10 @@
         <v>484</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>46</v>
@@ -50398,10 +50404,10 @@
         <v>484</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>46</v>
@@ -50550,10 +50556,10 @@
         <v>484</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>46</v>
@@ -50702,10 +50708,10 @@
         <v>484</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>46</v>
@@ -50854,10 +50860,10 @@
         <v>484</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>46</v>
@@ -51006,10 +51012,10 @@
         <v>484</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>46</v>
@@ -51158,10 +51164,10 @@
         <v>484</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>46</v>
@@ -51310,10 +51316,10 @@
         <v>484</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>46</v>
@@ -51462,10 +51468,10 @@
         <v>484</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>46</v>
@@ -51614,10 +51620,10 @@
         <v>484</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>46</v>
@@ -51766,10 +51772,10 @@
         <v>484</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>46</v>
@@ -51918,10 +51924,10 @@
         <v>484</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>46</v>
@@ -52070,10 +52076,10 @@
         <v>484</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>46</v>
@@ -52222,10 +52228,10 @@
         <v>484</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>46</v>
@@ -52374,10 +52380,10 @@
         <v>484</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>46</v>
@@ -52526,10 +52532,10 @@
         <v>484</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>46</v>
@@ -52678,10 +52684,10 @@
         <v>484</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>46</v>
@@ -52830,10 +52836,10 @@
         <v>484</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>46</v>
@@ -52982,10 +52988,10 @@
         <v>484</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>46</v>
@@ -53134,10 +53140,10 @@
         <v>484</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>46</v>
@@ -53286,10 +53292,10 @@
         <v>484</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>46</v>
@@ -53438,10 +53444,10 @@
         <v>484</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>46</v>
@@ -53590,10 +53596,10 @@
         <v>484</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>46</v>
@@ -53742,10 +53748,10 @@
         <v>484</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J119" s="2" t="s">
         <v>46</v>
@@ -53894,10 +53900,10 @@
         <v>484</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J120" s="2" t="s">
         <v>46</v>
@@ -54046,10 +54052,10 @@
         <v>484</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J121" s="2" t="s">
         <v>46</v>
@@ -54198,10 +54204,10 @@
         <v>484</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>46</v>
@@ -54350,10 +54356,10 @@
         <v>484</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>46</v>
@@ -54502,10 +54508,10 @@
         <v>484</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>46</v>
@@ -54654,10 +54660,10 @@
         <v>484</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>46</v>
@@ -54806,10 +54812,10 @@
         <v>484</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>46</v>
@@ -54958,10 +54964,10 @@
         <v>484</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>46</v>
@@ -55110,10 +55116,10 @@
         <v>484</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>46</v>
@@ -55262,10 +55268,10 @@
         <v>484</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>46</v>
@@ -55414,10 +55420,10 @@
         <v>484</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>46</v>
@@ -55566,10 +55572,10 @@
         <v>484</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>46</v>
@@ -55718,10 +55724,10 @@
         <v>484</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>46</v>
@@ -55870,10 +55876,10 @@
         <v>484</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>46</v>
@@ -56022,10 +56028,10 @@
         <v>484</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>46</v>
@@ -56174,10 +56180,10 @@
         <v>484</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>46</v>
@@ -56326,10 +56332,10 @@
         <v>484</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>46</v>
@@ -56478,10 +56484,10 @@
         <v>484</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J137" s="2" t="s">
         <v>46</v>
@@ -56630,10 +56636,10 @@
         <v>484</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J138" s="2" t="s">
         <v>46</v>
@@ -56782,10 +56788,10 @@
         <v>484</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J139" s="2" t="s">
         <v>46</v>
@@ -56934,10 +56940,10 @@
         <v>484</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J140" s="2" t="s">
         <v>46</v>
@@ -57086,10 +57092,10 @@
         <v>484</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>46</v>
@@ -57238,10 +57244,10 @@
         <v>484</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>46</v>
@@ -57390,10 +57396,10 @@
         <v>484</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>46</v>
@@ -57542,10 +57548,10 @@
         <v>484</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>46</v>
@@ -57694,10 +57700,10 @@
         <v>484</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>46</v>
@@ -57846,10 +57852,10 @@
         <v>484</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>46</v>
@@ -57998,10 +58004,10 @@
         <v>484</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>46</v>
@@ -58150,10 +58156,10 @@
         <v>484</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>46</v>
@@ -58302,10 +58308,10 @@
         <v>484</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>46</v>
@@ -58454,10 +58460,10 @@
         <v>484</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>46</v>
@@ -58606,10 +58612,10 @@
         <v>484</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>46</v>
@@ -58758,10 +58764,10 @@
         <v>484</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>46</v>
@@ -58910,10 +58916,10 @@
         <v>484</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>46</v>
@@ -59062,10 +59068,10 @@
         <v>484</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>46</v>
@@ -59214,10 +59220,10 @@
         <v>484</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>46</v>
@@ -59366,10 +59372,10 @@
         <v>484</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>46</v>
@@ -59518,10 +59524,10 @@
         <v>484</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>46</v>
@@ -59670,10 +59676,10 @@
         <v>484</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J158" s="2" t="s">
         <v>46</v>
@@ -59822,10 +59828,10 @@
         <v>484</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>46</v>
@@ -59974,10 +59980,10 @@
         <v>484</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>46</v>
@@ -60126,10 +60132,10 @@
         <v>484</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>46</v>
@@ -60278,10 +60284,10 @@
         <v>484</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>46</v>
@@ -60430,10 +60436,10 @@
         <v>484</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>46</v>
@@ -60582,10 +60588,10 @@
         <v>484</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>46</v>
@@ -60734,10 +60740,10 @@
         <v>484</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>46</v>
@@ -60886,10 +60892,10 @@
         <v>484</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>46</v>
@@ -61038,10 +61044,10 @@
         <v>484</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>46</v>
@@ -61190,10 +61196,10 @@
         <v>484</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>46</v>
@@ -61342,10 +61348,10 @@
         <v>484</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>46</v>
@@ -61494,10 +61500,10 @@
         <v>484</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>46</v>
@@ -61646,10 +61652,10 @@
         <v>484</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>46</v>
@@ -61798,10 +61804,10 @@
         <v>484</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>46</v>
@@ -61950,10 +61956,10 @@
         <v>484</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>46</v>
@@ -62102,10 +62108,10 @@
         <v>484</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>46</v>
@@ -62254,10 +62260,10 @@
         <v>484</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>46</v>
@@ -62406,10 +62412,10 @@
         <v>484</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>46</v>
@@ -62558,10 +62564,10 @@
         <v>484</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>46</v>
@@ -62710,10 +62716,10 @@
         <v>484</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>46</v>
@@ -62862,10 +62868,10 @@
         <v>484</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>46</v>
@@ -63014,10 +63020,10 @@
         <v>484</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>46</v>
@@ -63166,10 +63172,10 @@
         <v>484</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>46</v>
@@ -63318,10 +63324,10 @@
         <v>484</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>46</v>
@@ -63470,10 +63476,10 @@
         <v>484</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>46</v>
@@ -63622,10 +63628,10 @@
         <v>484</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>46</v>
@@ -63774,10 +63780,10 @@
         <v>484</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>46</v>
@@ -63926,10 +63932,10 @@
         <v>484</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>46</v>
@@ -64078,10 +64084,10 @@
         <v>484</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>46</v>
@@ -64230,10 +64236,10 @@
         <v>484</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>46</v>
@@ -64382,10 +64388,10 @@
         <v>484</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>46</v>
@@ -64534,10 +64540,10 @@
         <v>484</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>46</v>
@@ -64686,10 +64692,10 @@
         <v>484</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>46</v>
@@ -64838,10 +64844,10 @@
         <v>484</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>46</v>
@@ -64990,10 +64996,10 @@
         <v>484</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J193" s="2" t="s">
         <v>46</v>
@@ -65142,10 +65148,10 @@
         <v>484</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>46</v>
@@ -65294,10 +65300,10 @@
         <v>484</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J195" s="2" t="s">
         <v>46</v>
@@ -65446,10 +65452,10 @@
         <v>484</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J196" s="2" t="s">
         <v>46</v>
@@ -65598,10 +65604,10 @@
         <v>484</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J197" s="2" t="s">
         <v>46</v>
@@ -65750,10 +65756,10 @@
         <v>484</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>46</v>
@@ -65902,10 +65908,10 @@
         <v>484</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>46</v>
@@ -66054,10 +66060,10 @@
         <v>484</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>46</v>
@@ -66206,10 +66212,10 @@
         <v>484</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>46</v>
@@ -66358,10 +66364,10 @@
         <v>484</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>46</v>
@@ -66510,10 +66516,10 @@
         <v>484</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>46</v>
@@ -66662,10 +66668,10 @@
         <v>484</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>46</v>
@@ -66814,10 +66820,10 @@
         <v>484</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>46</v>
@@ -66966,10 +66972,10 @@
         <v>484</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>46</v>
@@ -67118,10 +67124,10 @@
         <v>484</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>46</v>
@@ -67270,10 +67276,10 @@
         <v>484</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>46</v>
@@ -67422,10 +67428,10 @@
         <v>484</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>46</v>
@@ -67574,10 +67580,10 @@
         <v>484</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>46</v>
@@ -67726,10 +67732,10 @@
         <v>484</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>46</v>
@@ -67878,10 +67884,10 @@
         <v>484</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>46</v>
@@ -68030,10 +68036,10 @@
         <v>484</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>46</v>
@@ -68182,10 +68188,10 @@
         <v>484</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>46</v>
@@ -68334,10 +68340,10 @@
         <v>484</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>46</v>
@@ -68486,10 +68492,10 @@
         <v>484</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>46</v>
@@ -68638,10 +68644,10 @@
         <v>484</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>46</v>
@@ -68790,10 +68796,10 @@
         <v>484</v>
       </c>
       <c r="H218" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>46</v>
@@ -68942,10 +68948,10 @@
         <v>484</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J219" s="2" t="s">
         <v>46</v>
@@ -69094,10 +69100,10 @@
         <v>484</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J220" s="2" t="s">
         <v>46</v>
@@ -69246,10 +69252,10 @@
         <v>484</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J221" s="2" t="s">
         <v>46</v>
@@ -69398,10 +69404,10 @@
         <v>484</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J222" s="2" t="s">
         <v>46</v>
@@ -69550,10 +69556,10 @@
         <v>484</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J223" s="2" t="s">
         <v>46</v>
@@ -69702,10 +69708,10 @@
         <v>484</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J224" s="2" t="s">
         <v>46</v>
@@ -69854,10 +69860,10 @@
         <v>484</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J225" s="2" t="s">
         <v>46</v>
@@ -70006,10 +70012,10 @@
         <v>484</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J226" s="2" t="s">
         <v>46</v>
@@ -70158,10 +70164,10 @@
         <v>484</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J227" s="2" t="s">
         <v>46</v>
@@ -70310,10 +70316,10 @@
         <v>484</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J228" s="2" t="s">
         <v>46</v>
@@ -70462,10 +70468,10 @@
         <v>484</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J229" s="2" t="s">
         <v>46</v>
@@ -70614,10 +70620,10 @@
         <v>484</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J230" s="2" t="s">
         <v>46</v>
@@ -70766,10 +70772,10 @@
         <v>484</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J231" s="2" t="s">
         <v>46</v>
@@ -70918,10 +70924,10 @@
         <v>484</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J232" s="2" t="s">
         <v>46</v>
@@ -71070,10 +71076,10 @@
         <v>484</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J233" s="2" t="s">
         <v>46</v>
@@ -71222,10 +71228,10 @@
         <v>484</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J234" s="2" t="s">
         <v>46</v>
@@ -71374,10 +71380,10 @@
         <v>484</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J235" s="2" t="s">
         <v>46</v>
@@ -71526,10 +71532,10 @@
         <v>484</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J236" s="2" t="s">
         <v>46</v>
@@ -71678,10 +71684,10 @@
         <v>484</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J237" s="2" t="s">
         <v>46</v>
@@ -71830,10 +71836,10 @@
         <v>484</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J238" s="2" t="s">
         <v>46</v>
@@ -71982,10 +71988,10 @@
         <v>484</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J239" s="2" t="s">
         <v>46</v>
@@ -72134,10 +72140,10 @@
         <v>484</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J240" s="2" t="s">
         <v>46</v>
@@ -72286,10 +72292,10 @@
         <v>484</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J241" s="2" t="s">
         <v>46</v>
@@ -72438,10 +72444,10 @@
         <v>484</v>
       </c>
       <c r="H242" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J242" s="2" t="s">
         <v>46</v>
@@ -72590,10 +72596,10 @@
         <v>484</v>
       </c>
       <c r="H243" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J243" s="2" t="s">
         <v>46</v>
@@ -72742,10 +72748,10 @@
         <v>484</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J244" s="2" t="s">
         <v>46</v>
@@ -72894,10 +72900,10 @@
         <v>484</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J245" s="2" t="s">
         <v>46</v>
@@ -73046,10 +73052,10 @@
         <v>484</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>46</v>
@@ -73198,10 +73204,10 @@
         <v>484</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J247" s="2" t="s">
         <v>46</v>
@@ -73350,10 +73356,10 @@
         <v>484</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J248" s="2" t="s">
         <v>46</v>
@@ -73502,10 +73508,10 @@
         <v>484</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J249" s="2" t="s">
         <v>46</v>
@@ -73654,10 +73660,10 @@
         <v>484</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J250" s="2" t="s">
         <v>46</v>
@@ -73806,10 +73812,10 @@
         <v>484</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J251" s="2" t="s">
         <v>46</v>
@@ -73958,10 +73964,10 @@
         <v>484</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J252" s="2" t="s">
         <v>46</v>
@@ -74110,10 +74116,10 @@
         <v>484</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J253" s="2" t="s">
         <v>46</v>
@@ -74262,10 +74268,10 @@
         <v>484</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J254" s="2" t="s">
         <v>46</v>
@@ -74414,10 +74420,10 @@
         <v>484</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J255" s="2" t="s">
         <v>46</v>
@@ -74566,10 +74572,10 @@
         <v>484</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J256" s="2" t="s">
         <v>46</v>
@@ -74718,10 +74724,10 @@
         <v>484</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J257" s="2" t="s">
         <v>46</v>
@@ -74870,10 +74876,10 @@
         <v>484</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J258" s="2" t="s">
         <v>46</v>
@@ -75022,10 +75028,10 @@
         <v>484</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J259" s="2" t="s">
         <v>46</v>
@@ -75174,10 +75180,10 @@
         <v>484</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J260" s="2" t="s">
         <v>46</v>
@@ -75326,10 +75332,10 @@
         <v>484</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J261" s="2" t="s">
         <v>46</v>
@@ -75478,10 +75484,10 @@
         <v>484</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J262" s="2" t="s">
         <v>46</v>
